--- a/CaseAndFatalityDemographicsData/2021-06-11.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-06-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\6.3.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\6.10.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F63626-8488-4D12-9CAE-4FC2D6AB5535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD8ED9A-F1F3-4DBE-8972-1B32614F48D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="3" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -639,11 +639,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.5062144194638887E-3</v>
+        <v>3.5270048072698974E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -651,11 +651,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7367700099279907E-2</v>
+        <v>1.7409094902787716E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -663,11 +663,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3821</v>
+        <v>3834</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.8018800346851319E-2</v>
+        <v>4.8122905448657605E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -675,11 +675,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15806</v>
+        <v>15830</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.19863521546253127</v>
+        <v>0.19869212134904796</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -687,11 +687,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17337</v>
+        <v>17349</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.2178754100008797</v>
+        <v>0.21775802989795534</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -699,11 +699,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15208</v>
+        <v>15225</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19112010355271261</v>
+        <v>0.19109839213766616</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -711,11 +711,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12831</v>
+        <v>12842</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16124816206502204</v>
+        <v>0.16118788517779367</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -723,11 +723,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4645</v>
+        <v>4648</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8374071607203447E-2</v>
+        <v>5.833992293306222E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -735,11 +735,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9498322295250902E-2</v>
+        <v>3.9499943517716608E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -747,11 +747,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.3927714174405892E-2</v>
+        <v>2.3948488157547916E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -759,11 +759,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.5759114272429091E-2</v>
+        <v>1.5777384493730468E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -775,7 +775,7 @@
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4505799705930403E-2</v>
+        <v>2.4475656135858719E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -787,7 +787,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.6337199803953602E-4</v>
+        <v>1.6317104090572478E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -796,7 +796,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>79573</v>
+        <v>79671</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -835,11 +835,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>27126</v>
+        <v>27187</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.3408945245246503</v>
+        <v>0.34124085300799539</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="15"/>
@@ -851,11 +851,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>51549</v>
+        <v>51585</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.64782024053384946</v>
+        <v>0.64747524193244721</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="14"/>
@@ -867,11 +867,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="6">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.1285234941500258E-2</v>
+        <v>1.128390505955743E-2</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>79573</v>
+        <v>79671</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -935,11 +935,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.2127229085242481E-2</v>
+        <v>1.2149966738210892E-2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
@@ -953,11 +953,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>13062</v>
+        <v>13075</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.16415115679941689</v>
+        <v>0.1641124122955655</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="20"/>
@@ -971,11 +971,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>28490</v>
+        <v>28531</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.35803601724202933</v>
+        <v>0.35811022831394107</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20"/>
@@ -989,11 +989,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" ref="C5" si="2">B5/$B$8</f>
-        <v>7.2763374511454889E-3</v>
+        <v>7.1920774183831006E-3</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="20"/>
@@ -1007,11 +1007,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>27788</v>
+        <v>27822</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.34921392934789441</v>
+        <v>0.34921113077531346</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="20"/>
@@ -1025,11 +1025,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>8689</v>
+        <v>8702</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>0.10919533007427143</v>
+        <v>0.10922418445858594</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>79573</v>
+        <v>79671</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="1"/>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.3836726625815379E-4</v>
+        <v>1.3777629066860867E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.5696778019371419E-4</v>
+        <v>2.5587025409884467E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.7206957896817556E-4</v>
+        <v>6.6919912610467064E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1247,11 +1247,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.159122356196877E-3</v>
+        <v>5.1567697364536379E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1259,11 +1259,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.7157541016011069E-2</v>
+        <v>1.7320447969767946E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1271,11 +1271,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2528</v>
+        <v>2548</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.9970349871516107E-2</v>
+        <v>5.0150569803373554E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1283,11 +1283,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>5735</v>
+        <v>5780</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11336232457007314</v>
+        <v>0.11376385143779401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1295,11 +1295,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4775</v>
+        <v>4797</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.438624234038348E-2</v>
+        <v>9.4416123762473672E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1307,11 +1307,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6140</v>
+        <v>6172</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12136785926072347</v>
+        <v>0.12147932371523609</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1319,11 +1319,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>6768</v>
+        <v>6796</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13378137971931212</v>
+        <v>0.13376109591198063</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1331,11 +1331,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6676</v>
+        <v>6702</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13196283850563353</v>
+        <v>0.13191095715157361</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1343,11 +1343,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>16785</v>
+        <v>16816</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.33178493773473017</v>
+        <v>0.33097801484047473</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>50590</v>
+        <v>50807</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1406,11 +1406,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>21204</v>
+        <v>21297</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41913421624827041</v>
+        <v>0.41917452319562265</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1418,11 +1418,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>29385</v>
+        <v>29509</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58084601699940697</v>
+        <v>0.58080579447713898</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.9766752322593396E-5</v>
+        <v>1.9682327238372666E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>50590</v>
+        <v>50807</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1484,11 +1484,11 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>2.1348092508400869E-2</v>
+        <v>2.1296278071919222E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1496,11 +1496,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5129</v>
+        <v>5161</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10138367266258154</v>
+        <v>0.10158049087724133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1508,11 +1508,11 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>23500</v>
+        <v>23593</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.46451867958094484</v>
+        <v>0.46436514653492628</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1520,11 +1520,11 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.4160901363905908E-3</v>
+        <v>5.4520046450292278E-3</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -1533,11 +1533,11 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>20584</v>
+        <v>20671</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.40687882980826251</v>
+        <v>0.40685338634440138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.5463530341964813E-4</v>
+        <v>4.526935264825713E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>50590</v>
+        <v>50807</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
